--- a/medicine/Mort/Hommage_national/Hommage_national.xlsx
+++ b/medicine/Mort/Hommage_national/Hommage_national.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hommage national ou l'Hommage de la Nation, est une désignation officielle en France pour une distinction d'honneur exceptionnelle, rendu à un ou plusieurs défunts à l'occasion d'obsèques.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tenue d'un Hommage national est une décision prise par le président de la République, et qui est inscrite au Journal officiel de la République française (JORF). La cérémonie d'Hommage se déroule traditionnellement dans la Cour d'honneur de l'Hôtel des Invalides (qui est généralement réservée aux militaires décédés, toutefois des personnalités civiles y ont été honorées après leur mort) ou au Panthéon, où le cercueil du défunt est recouvert du drapeau national.
 Le Chef de l'État (le président de la République) prononce un discours et leur éloge funèbre au cours d'une cérémonie codifiée (protocolaire).
-Plusieurs autres dispositions peuvent s'ajouter à l'Hommage et sont prises à l’échelle du pays selon un décret prit par le président de la République[1] : comme la mise en berne des drapeaux, la minute de silence, l'arrêt des activités des administrations pendant un jour ou plus ou encore la journée de deuil national.
-La cérémonie d'Hommage national est semblable à la cérémonie des obsèques nationales, la seule différence étant que ces dernières (les obsèques nationales) relèvent d'un décret du président de la République et sont exclusivement à la charge de l'État[2].
+Plusieurs autres dispositions peuvent s'ajouter à l'Hommage et sont prises à l’échelle du pays selon un décret prit par le président de la République : comme la mise en berne des drapeaux, la minute de silence, l'arrêt des activités des administrations pendant un jour ou plus ou encore la journée de deuil national.
+La cérémonie d'Hommage national est semblable à la cérémonie des obsèques nationales, la seule différence étant que ces dernières (les obsèques nationales) relèvent d'un décret du président de la République et sont exclusivement à la charge de l'État.
 De nombreuses personnalités ont été honorées après leur mort et à l'occasion de leurs obsèques, comme le Commandant Jacques-Yves Cousteau, Pierre Schoendoerffer, Stéphane Hessel, Robert Chambeiron, Jean d'Ormesson, Charles Aznavour ou encore Jean-Paul Belmondo. Par ailleurs, Johnny Hallyday a quant à lui eu droit à un Hommage populaire et non à un Hommage national.
-Plusieurs personnalités politiques ayant marqué la scène politique : Pierre Mendès France (27 octobre 1982), Jacques Chaban-Delmas (13 novembre 2000), l'Abbé Pierre (26 janvier 2004), Aimé Césaire (6 avril 2011), Philippe Séguin (11 janvier 2010), Pierre Mauroy (11 juin 2013), Dominique Baudis (15 avril 2014), Robert Chambeiron (2 janvier 2015), Charles Pasqua (3 juillet 2015), Yves Guéna (8 mars 2016), Michel Rocard (7 juillet 2016), Simone Veil (5 juillet 2017), Jacques Chirac (29 septembre 2019), Jacques Delors (5 janvier 2024), Robert Badinter (14 février 2024) ont eu droit à un Hommage national[3],[4].
+Plusieurs personnalités politiques ayant marqué la scène politique : Pierre Mendès France (27 octobre 1982), Jacques Chaban-Delmas (13 novembre 2000), l'Abbé Pierre (26 janvier 2004), Aimé Césaire (6 avril 2011), Philippe Séguin (11 janvier 2010), Pierre Mauroy (11 juin 2013), Dominique Baudis (15 avril 2014), Robert Chambeiron (2 janvier 2015), Charles Pasqua (3 juillet 2015), Yves Guéna (8 mars 2016), Michel Rocard (7 juillet 2016), Simone Veil (5 juillet 2017), Jacques Chirac (29 septembre 2019), Jacques Delors (5 janvier 2024), Robert Badinter (14 février 2024) ont eu droit à un Hommage national,.
 </t>
         </is>
       </c>
@@ -547,14 +561,16 @@
           <t>Hommage national pour les militaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hommage national est habituel pour les militaires tués dans l'exercice de leurs fonctions ou en opérations[5], comme pour les militaires tués en opérations extérieures tel que l'hommage le 26 juin 2017 d'Albéric Riveta, tué au Mali ou bien le gardien de la paix Xavier Jugelé, tué lors de l'attentat du 20 avril 2017 sur l'avenue des Champs-Élysées à Paris[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hommage national est habituel pour les militaires tués dans l'exercice de leurs fonctions ou en opérations, comme pour les militaires tués en opérations extérieures tel que l'hommage le 26 juin 2017 d'Albéric Riveta, tué au Mali ou bien le gardien de la paix Xavier Jugelé, tué lors de l'attentat du 20 avril 2017 sur l'avenue des Champs-Élysées à Paris.
 Les derniers en date sont : 
 L'Hommage rendu aux Invalides, le 28 mars 2018 à Arnaud Beltrame, officier supérieur de gendarmerie, connu pour avoir donné sa vie après s’être volontairement substitué à une otage au cours de l’attaque terroriste du 23 mars 2018 ;
-L'Hommage rendu aux Invalides, le 14 mai 2019 aux maîtres Cédric de Pierrepont et Alain Bertoncello qui ont perdu la vie en libérant des otages retenus prisonniers dans un campement mobile djihadiste de l'État islamique au grand Sahara près de Gorom-Gorom, dans le nord-est du Burkina Faso[7]
+L'Hommage rendu aux Invalides, le 14 mai 2019 aux maîtres Cédric de Pierrepont et Alain Bertoncello qui ont perdu la vie en libérant des otages retenus prisonniers dans un campement mobile djihadiste de l'État islamique au grand Sahara près de Gorom-Gorom, dans le nord-est du Burkina Faso
 L'Hommage rendu aux Invalides, le 2 décembre 2019 aux treize militaires tués au Mali dans un accident d'hélicoptère.
-Maxime Blasco, tué au Mali, reçoit un Hommage national aux Invalides, le 29 septembre 2021[8]. Le 22 janvier 2022, le brigadier Alexandre Martin est tué au Mali lors d'une attaque au mortier qui a visé le camp militaire de l’opération Barkhane à Gao, il reçoit le 26 janvier suivant un Hommage nationalsur le Pont Alexandre-III et aux Invalides[9]. Le 28 ou le 29 août 2023, le sergent Nicolas Mazier est mortellement blessé dans une embuscade de l'État islamique au sud de Kirkouk (Irak). Un Hommage national lui est rendu en divers endroits le 5 septembre 2023[10],[11],[12].
+Maxime Blasco, tué au Mali, reçoit un Hommage national aux Invalides, le 29 septembre 2021. Le 22 janvier 2022, le brigadier Alexandre Martin est tué au Mali lors d'une attaque au mortier qui a visé le camp militaire de l’opération Barkhane à Gao, il reçoit le 26 janvier suivant un Hommage nationalsur le Pont Alexandre-III et aux Invalides. Le 28 ou le 29 août 2023, le sergent Nicolas Mazier est mortellement blessé dans une embuscade de l'État islamique au sud de Kirkouk (Irak). Un Hommage national lui est rendu en divers endroits le 5 septembre 2023.
 </t>
         </is>
       </c>
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IIIe République
-Hors obsèques nationales. La liste démarre après les élections de 1877 et la fin de l'ordre moral[13].
+          <t>IIIe République</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hors obsèques nationales. La liste démarre après les élections de 1877 et la fin de l'ordre moral.
 1878 :
 Claude Bernard
 Aristide Denfert-Rochereau
@@ -650,11 +671,7 @@
 Édouard Renard et ses compagnons morts dans un accident d'avion
 Philippe Marcombes
 1938 : Victimes de l'explosion du dépôt de munition de Villejuif
-Présidence de François Mitterrand
-Présidence de Jacques Chirac
-Présidence de Nicolas Sarkozy
-Présidence de François Hollande
-Présidence d'Emmanuel Macron</t>
+</t>
         </is>
       </c>
     </row>
